--- a/biology/Botanique/Incendies_de_1988_à_Yellowstone/Incendies_de_1988_à_Yellowstone.xlsx
+++ b/biology/Botanique/Incendies_de_1988_à_Yellowstone/Incendies_de_1988_à_Yellowstone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incendies_de_1988_%C3%A0_Yellowstone</t>
+          <t>Incendies_de_1988_à_Yellowstone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les incendies de 1988 à Yellowstone sont les plus importants feux de forêt de l'histoire connue du parc national de Yellowstone, au nord-ouest du Wyoming aux États-Unis. Des nombreux petits feux de forêt individuels d'origine, les flammes se propagent rapidement et deviennent hors de contrôle, avec des vents croissants et une importante sécheresse. Combinés en un seul grand feu de forêt, il brûle pendant plusieurs mois, obligeant la fermeture du parc pour la première fois de son histoire. Seule l'arrivée d'un temps plus frais et humide à la fin de l'automne provoque la fin du feu de forêt. Un total de 3 213 km2, soit 36 % du parc, est touché. Tout l'écosystème du Yellowstone est alors altéré.
 	Évolution de la regénération végétale du parc national de Yellowstone (les zones touchées par l'incendie sont en rouge)
